--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_12_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_12_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11867.63220364509</v>
+        <v>2361658.808525373</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11867.63220364509</v>
+        <v>2361658.808525373</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39031.95502208296</v>
+        <v>2367399.962025783</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>39031.95502208296</v>
+        <v>2367399.962025783</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1419181456.92993</v>
+        <v>56469012.61106558</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13286.0235991351</v>
+        <v>1355273.217607441</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25461.8933534954</v>
+        <v>2520196.97991509</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37637.76310785566</v>
+        <v>3685120.742222742</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>51118.26567249827</v>
+        <v>4779028.564105517</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>64585.82969340542</v>
+        <v>5873962.108433027</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>78053.39371431257</v>
+        <v>6968895.652760534</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>91563.64217966415</v>
+        <v>8065909.410421371</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>105063.4373116825</v>
+        <v>9160842.954748873</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>118368.987138553</v>
+        <v>10225768.08465162</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>131694.536307428</v>
+        <v>11320385.04774324</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>144996.3027104544</v>
+        <v>12414292.86962602</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>158298.0691134809</v>
+        <v>13508200.6915088</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>171599.8355165074</v>
+        <v>14602108.51339158</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>184901.6019195339</v>
+        <v>15696016.33527436</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>198277.5137666063</v>
+        <v>16774651.96214682</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>216</v>
@@ -27052,13 +27052,13 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>206</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>1231</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>22</v>
